--- a/outputs-HGR-r202/g__Turicibacter.xlsx
+++ b/outputs-HGR-r202/g__Turicibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -484,11 +479,6 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>s__Turicibacter sp001543345</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>s__Turicibacter sp001543345(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Turicibacter.xlsx
+++ b/outputs-HGR-r202/g__Turicibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -477,6 +482,11 @@
         <v>0.7005974853864065</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Turicibacter sp001543345</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>s__Turicibacter sp001543345</t>
         </is>
